--- a/A1_relaxation_0.725.xlsx
+++ b/A1_relaxation_0.725.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Liza\university2year\sem4\MethV\Lab1\SLAU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Liza\university2year\sem4\MethV\Lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3958742E-2B5A-4B57-860E-767535F6B0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7083D4CC-816C-4335-A8CF-C24B7687674C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -331,7 +331,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="0"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="b" anchorCtr="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2294,8 +2294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V48" sqref="V48"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="X31" sqref="X31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
